--- a/appendix/accuracy_results.xlsx
+++ b/appendix/accuracy_results.xlsx
@@ -545,7 +545,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>,CometKiwi23-XL-src</t>
+          <t>CometKiwi$_\textrm{XL}^\textrm{QE}$</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -575,16 +575,14 @@
       <c r="J3" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K3" t="n">
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>,CometKiwi23-XXL-src</t>
+          <t>CometKiwi$_\textrm{XXL}^\textrm{QE}$</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -614,10 +612,8 @@
       <c r="J4" t="n">
         <v>86.5</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K4" t="n">
+        <v>91.2</v>
       </c>
     </row>
     <row r="5">
@@ -697,7 +693,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>,xCOMET-XL</t>
+          <t>xCOMET$_\textrm{XL}$</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -727,10 +723,8 @@
       <c r="J7" t="n">
         <v>86.2</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K7" t="n">
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -773,7 +767,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>,MetricX-23-QE-Large</t>
+          <t>MetricX-QE$_\textrm{Large}^\textrm{23}$</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -803,10 +797,8 @@
       <c r="J9" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K9" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="10">
@@ -886,7 +878,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>,MetricX-23-Large</t>
+          <t>MetricX$_\textrm{Large}^\textrm{23}$</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -916,10 +908,8 @@
       <c r="J12" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K12" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +952,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>,BertScore</t>
+          <t>BertScore</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -992,10 +982,8 @@
       <c r="J14" t="n">
         <v>83.3</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K14" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="15">
@@ -1075,7 +1063,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>,spBLEU101</t>
+          <t>spBLEU$^\textrm{101}$</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1105,10 +1093,8 @@
       <c r="J17" t="n">
         <v>81.2</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K17" t="n">
+        <v>82.3</v>
       </c>
     </row>
     <row r="18">
